--- a/data/exflight-trial-data.xlsx
+++ b/data/exflight-trial-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20623D0-5A83-1542-8625-87141245F0AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056A7186-BAB7-794A-8456-3B99863905FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18300" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="52">
   <si>
     <t>test_date</t>
   </si>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F292" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L302" sqref="L302"/>
+    <sheetView tabSelected="1" topLeftCell="K299" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P307" sqref="P307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14002,12 +14002,21 @@
       <c r="A307" s="36">
         <v>1731</v>
       </c>
+      <c r="C307" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D307" s="14">
         <v>17</v>
       </c>
       <c r="E307" s="12">
         <v>44512</v>
       </c>
+      <c r="F307" s="20">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="G307" s="20">
+        <v>0.1277777777777778</v>
+      </c>
       <c r="H307" s="8">
         <v>20</v>
       </c>
@@ -14017,8 +14026,20 @@
       <c r="J307" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="K307" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L307" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M307" s="36">
         <v>1731</v>
+      </c>
+      <c r="N307" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O307" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
